--- a/biology/Médecine/Guy_Courtois/Guy_Courtois.xlsx
+++ b/biology/Médecine/Guy_Courtois/Guy_Courtois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Courtois, né le 21 janvier 1922 ou 1923 et mort le 31 mai 2006[1], est un médecin neurologue canadien. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Courtois, né le 21 janvier 1922 ou 1923 et mort le 31 mai 2006, est un médecin neurologue canadien. 
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guy Courtois obtient un B.A.  en 1942, étudie à l'Université de Montréal où il obtient un M.D. en 1948, puis un M.Sc. en neurophysiologie en 1949 à McGill. Il poursuit un cursus postdoctoral en neurophysiologie qui le mènent à effectuer des stages intensifs au Queen's Square de Londres et à l'hôpital de la Salpêtrière de Paris (1949-1951), à l'hôpital de la Timone à Marseille (1951-1953), et à l'Institut neurologique du Royal Victoria Hospital (McGill). Il décroche la qualification CSPQ en 1954 puis CRCP en 1955.
-Avec André Barbeau, il est parmi les premiers neurologues canadiens à ne pas être psychiatre ou neuropsychiatre. Diplômés en médecine de l'Université de Montréal, ils ont tous deux poursuivi leur formation à l’Institut de neurologie puis à l’étranger[2].
+Avec André Barbeau, il est parmi les premiers neurologues canadiens à ne pas être psychiatre ou neuropsychiatre. Diplômés en médecine de l'Université de Montréal, ils ont tous deux poursuivi leur formation à l’Institut de neurologie puis à l’étranger.
 Annie Courtois, née Verpillot et Guy Courtois sont les élèves de l'Américain Herbert Jasper pionnier de l'électroencéphalographie (EEG).
 Il entreprend sa carrière professorale à l'hôpital Hôtel-Dieu où il met sur pied le laboratoire d'électroencéphalographie en 1953 qu'il dirige jusqu'en 1975. En 1964, il obtient un certificat de compétence en EEG.
-Annie et Guy Courtois se voient confiés conjointement par l'Hôpital Sainte-Justine, son service d'électroencéphalographie en 1953[3]. Courtois apporte son expérience à l'hôpital Sainte-Justine (1953-1956) tout en assumant les responsabilités de chef du Service de neurologie de l'Hôtel-Dieu (1960-1975). Courtois est agrégé en 1965 puis titulaire en 1976. Il contribue à la création de la Faculté de médecine de Sousse en Tunisie (1978-1979). Il travaille ensuite au service de formation médicale continue de l'UdeM qu'il dirige de 1986 à 1989[4].
+Annie et Guy Courtois se voient confiés conjointement par l'Hôpital Sainte-Justine, son service d'électroencéphalographie en 1953. Courtois apporte son expérience à l'hôpital Sainte-Justine (1953-1956) tout en assumant les responsabilités de chef du Service de neurologie de l'Hôtel-Dieu (1960-1975). Courtois est agrégé en 1965 puis titulaire en 1976. Il contribue à la création de la Faculté de médecine de Sousse en Tunisie (1978-1979). Il travaille ensuite au service de formation médicale continue de l'UdeM qu'il dirige de 1986 à 1989.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eléments de neurologie clinique, 1985, éditeur Vigot
 Neurologie avec de nombreuses rééditions : 1991 - Presses Universitaires de Montréal, 2006 - Éditeur Frison Roche</t>
